--- a/Good to go/mean_by_stress_level.xlsx
+++ b/Good to go/mean_by_stress_level.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thilinaabhisheka/Reaserach_work/Medical-student-stress/Good to go/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{656BB595-EDC2-8043-9172-5141D6C2937D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDE39A77-B3C6-B84D-A7DA-8C4A56ACF219}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16320"/>
+    <workbookView xWindow="1140" yWindow="500" windowWidth="27660" windowHeight="16320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="mean_by_stress_level" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>academic</t>
   </si>
@@ -127,14 +127,17 @@
   </si>
   <si>
     <t>low</t>
+  </si>
+  <si>
+    <t>​</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
@@ -647,11 +650,11 @@
     <xf numFmtId="0" fontId="0" fillId="20" borderId="10" xfId="29" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="12" borderId="10" xfId="21" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="16" borderId="10" xfId="25" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="18" fillId="14" borderId="10" xfId="23" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="18" fillId="14" borderId="10" xfId="23" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="32" borderId="10" xfId="41" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="18" fillId="30" borderId="10" xfId="39" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="18" fillId="30" borderId="10" xfId="39" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="24" borderId="10" xfId="33" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="18" fillId="22" borderId="10" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="18" fillId="22" borderId="10" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="19" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
@@ -1007,11 +1010,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U96"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:U101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" zoomScale="112" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1594,6 +1597,11 @@
         <v>1.95488721804511</v>
       </c>
     </row>
+    <row r="101" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C101" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
